--- a/Results/result-9.xlsx
+++ b/Results/result-9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Algorithm1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Algorithm1\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DF8648-2A4E-4C12-92AA-AA9C0351C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3210F28D-8020-410A-8F0B-69DC757FB14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -592,6 +592,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Произведение матриц</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,8 +655,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Функция</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -655,19 +683,20 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
+            <c:name>Аппроксимирующая</c:name>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="31750" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="6"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
@@ -1015,7 +1044,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1027,292 +1056,292 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9999999999999999E-6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0000000000000002E-6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2E-5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5999999999999999E-5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9000000000000001E-5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3E-5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8E-5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4E-5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1999999999999997E-5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5999999999999999E-5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7999999999999999E-5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.3999999999999996E-5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2999999999999998E-5</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.5000000000000005E-5</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.07E-4</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2400000000000001E-4</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37E-4</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.54E-4</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.74E-4</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8599999999999999E-4</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0699999999999999E-4</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.32E-4</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.6499999999999999E-4</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8899999999999998E-4</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1799999999999998E-4</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.39E-4</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0900000000000002E-4</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0999999999999999E-4</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4000000000000002E-4</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6799999999999999E-4</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9200000000000003E-4</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.3700000000000004E-4</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.6300000000000002E-4</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.2100000000000002E-4</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.8800000000000003E-4</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.3200000000000001E-4</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.5299999999999998E-4</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.1700000000000002E-4</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.6700000000000004E-4</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.0799999999999995E-4</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.6400000000000001E-4</c:v>
+                  <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0250000000000001E-3</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.098E-3</c:v>
+                  <c:v>1022</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.17E-3</c:v>
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.232E-3</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3370000000000001E-3</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3860000000000001E-3</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.431E-3</c:v>
+                  <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5020000000000001E-3</c:v>
+                  <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.565E-3</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6949999999999999E-3</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8209999999999999E-3</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.941E-3</c:v>
+                  <c:v>1701</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0579999999999999E-3</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1679999999999998E-3</c:v>
+                  <c:v>1864</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.2599999999999999E-3</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.3249999999999998E-3</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4130000000000002E-3</c:v>
+                  <c:v>2160</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.3839999999999998E-3</c:v>
+                  <c:v>2293</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.588E-3</c:v>
+                  <c:v>2357</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.849E-3</c:v>
+                  <c:v>2452</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.82E-3</c:v>
+                  <c:v>2575</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.954E-3</c:v>
+                  <c:v>2683</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.9640000000000001E-3</c:v>
+                  <c:v>2811</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1809999999999998E-3</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.2980000000000002E-3</c:v>
+                  <c:v>3033</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.49E-3</c:v>
+                  <c:v>3099</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.467E-3</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.5799999999999998E-3</c:v>
+                  <c:v>3335</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.712E-3</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.9230000000000003E-3</c:v>
+                  <c:v>3777</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.8809999999999999E-3</c:v>
+                  <c:v>3841</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.0829999999999998E-3</c:v>
+                  <c:v>3956</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.313E-3</c:v>
+                  <c:v>4109</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.5510000000000004E-3</c:v>
+                  <c:v>4290</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.7200000000000002E-3</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9839999999999997E-3</c:v>
+                  <c:v>4499</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.2440000000000004E-3</c:v>
+                  <c:v>4634</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.182E-3</c:v>
+                  <c:v>4806</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.3150000000000003E-3</c:v>
+                  <c:v>4974</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.4409999999999997E-3</c:v>
+                  <c:v>5098</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.7460000000000002E-3</c:v>
+                  <c:v>5259</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.9360000000000003E-3</c:v>
+                  <c:v>5406</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.1529999999999996E-3</c:v>
+                  <c:v>5636</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.2969999999999996E-3</c:v>
+                  <c:v>5756</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.4729999999999996E-3</c:v>
+                  <c:v>6017</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.6059999999999999E-3</c:v>
+                  <c:v>6213</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.7650000000000002E-3</c:v>
+                  <c:v>6388</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.9849999999999999E-3</c:v>
+                  <c:v>6609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1349,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECCD-4EE6-84E5-DF16D754A98B}"/>
+              <c16:uniqueId val="{00000000-1BD5-4A9C-8E52-03AA8B3E87CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1334,16 +1363,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1023918960"/>
-        <c:axId val="1023919792"/>
+        <c:axId val="449844223"/>
+        <c:axId val="449842143"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1023918960"/>
+        <c:axId val="449844223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1353,8 +1396,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1381,7 +1424,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023919792"/>
+        <c:crossAx val="449842143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1023919792"/>
+        <c:axId val="449842143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,8 +1458,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1440,7 +1489,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023918960"/>
+        <c:crossAx val="449844223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,6 +1501,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1525,7 +1605,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1552,8 +1632,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1654,7 +1734,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1686,10 +1766,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1729,22 +1809,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1849,8 +1930,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1982,19 +2063,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2008,6 +2090,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2048,7 +2141,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA9C214-18E3-4F3A-BD1A-FA66D0765030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6D4584-8BF2-464E-9E4C-7EA42B35013E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B100"/>
     </sheetView>
   </sheetViews>
@@ -2381,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.9999999999999999E-6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.9999999999999995E-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.9999999999999995E-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.9999999999999999E-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.9999999999999998E-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.0000000000000004E-6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.9999999999999999E-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2554,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.0000000000000002E-6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.2E-5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.5999999999999999E-5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.9000000000000001E-5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2586,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.3E-5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.8E-5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.4E-5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2610,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.0000000000000003E-5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2618,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5.1999999999999997E-5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2626,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5.5999999999999999E-5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6.7999999999999999E-5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2642,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7.3999999999999996E-5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2650,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8.2999999999999998E-5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,7 +2658,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.5000000000000005E-5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +2666,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.07E-4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2674,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.2400000000000001E-4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.37E-4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2690,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.54E-4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +2698,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.74E-4</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +2706,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.8599999999999999E-4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.0699999999999999E-4</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2722,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.32E-4</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2730,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.5000000000000001E-4</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2738,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.6499999999999999E-4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +2746,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.8899999999999998E-4</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +2754,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3.1799999999999998E-4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2762,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3.39E-4</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4.0900000000000002E-4</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2778,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4.0999999999999999E-4</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2786,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4.4000000000000002E-4</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2794,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4.6799999999999999E-4</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +2802,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4.9200000000000003E-4</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2810,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5.3700000000000004E-4</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2818,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5.6300000000000002E-4</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2826,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6.2100000000000002E-4</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +2834,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6.8800000000000003E-4</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +2842,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7.3200000000000001E-4</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +2850,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7.5299999999999998E-4</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2858,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8.1700000000000002E-4</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +2866,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>8.6700000000000004E-4</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2874,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>9.0799999999999995E-4</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +2882,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9.6400000000000001E-4</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2890,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.0250000000000001E-3</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +2898,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.098E-3</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +2906,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.17E-3</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2914,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.232E-3</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +2922,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.3370000000000001E-3</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2930,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.3860000000000001E-3</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +2938,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.431E-3</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +2946,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.5020000000000001E-3</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +2954,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.565E-3</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +2962,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.6949999999999999E-3</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +2970,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.8209999999999999E-3</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +2978,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.941E-3</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2986,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.0579999999999999E-3</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +2994,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2.1679999999999998E-3</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +3002,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2.2599999999999999E-3</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2.3249999999999998E-3</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +3018,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2.4130000000000002E-3</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +3026,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.3839999999999998E-3</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +3034,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2.588E-3</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3042,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2.849E-3</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3050,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2.82E-3</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3058,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2.954E-3</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2.9640000000000001E-3</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3.1809999999999998E-3</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3082,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3.2980000000000002E-3</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3090,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3.49E-3</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3098,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3.467E-3</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3106,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3.5799999999999998E-3</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3.712E-3</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3122,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3.9230000000000003E-3</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3130,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3.8809999999999999E-3</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3138,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>4.0829999999999998E-3</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3146,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>4.313E-3</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3154,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4.5510000000000004E-3</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3162,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4.7200000000000002E-3</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3170,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>4.9839999999999997E-3</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3178,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>5.2440000000000004E-3</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5.182E-3</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3194,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>5.3150000000000003E-3</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>5.4409999999999997E-3</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3210,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>5.7460000000000002E-3</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3218,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>5.9360000000000003E-3</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3226,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>6.1529999999999996E-3</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3234,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>6.2969999999999996E-3</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3242,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>6.4729999999999996E-3</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3250,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>6.6059999999999999E-3</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3258,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>6.7650000000000002E-3</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3266,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6.9849999999999999E-3</v>
+        <v>6609</v>
       </c>
     </row>
   </sheetData>
